--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>项目名称</t>
   </si>
@@ -78,14 +78,6 @@
   </si>
   <si>
     <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐运维系统</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -572,7 +564,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -615,7 +607,7 @@
     </row>
     <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -633,13 +625,13 @@
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -651,7 +643,7 @@
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -667,9 +659,9 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -685,9 +677,9 @@
       <c r="G5" s="9"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -703,9 +695,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -747,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -765,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -783,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>项目名称</t>
   </si>
@@ -94,6 +94,17 @@
   </si>
   <si>
     <t>周小龙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1移交内容接口之后的接口测试
+2上线问题查询（专辑信息补全，栏目信息显示补全等）
+3上线问题修复（专辑语言竖线分割修改为空格）
+4与测试一起调试接口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +575,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -713,7 +724,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="104.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -728,8 +739,12 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="396" windowWidth="18084" windowHeight="6420"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -52,12 +55,16 @@
     <t>北京烽火</t>
   </si>
   <si>
-    <t>北京烽火</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>迁移代码上线并测试</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>杜智恒</t>
   </si>
   <si>
     <t>凌河源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -66,53 +73,41 @@
     <t>赵小平</t>
   </si>
   <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
     <t>王琪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜智恒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范小燕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗健</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周小龙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1移交内容接口之后的接口测试
 2上线问题查询（专辑信息补全，栏目信息显示补全等）
 3上线问题修复（专辑语言竖线分割修改为空格）
 4与测试一起调试接口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,38 +142,168 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +312,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -226,19 +537,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -251,31 +815,72 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -293,7 +898,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -566,297 +1171,307 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.775" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="34.8" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="86.25" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="104.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9" t="s">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>项目名称</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>范小燕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.内容接口的交叉测试                                            2.协助测试人员完成自己负责 接口测试    </t>
   </si>
   <si>
     <t>罗健</t>
@@ -103,11 +106,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,21 +145,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -168,39 +165,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,11 +188,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,64 +248,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,19 +315,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,31 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,61 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,61 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +553,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -595,21 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -641,155 +632,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -815,13 +806,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,7 +886,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1180,7 +1168,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1281,7 +1269,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
@@ -1317,7 +1305,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="17.25" spans="1:8">
@@ -1360,14 +1348,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="49" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1375,8 +1363,12 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="6" t="s">
@@ -1385,15 +1377,15 @@
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="17.25" spans="1:8">
@@ -1403,15 +1395,15 @@
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
   </sheetData>
@@ -1434,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>项目名称</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.代码迁移并测试。
+2.上线问题查询（推荐歌单无图片和标题）</t>
   </si>
   <si>
     <t>王琪</t>
@@ -105,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -158,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -165,12 +177,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -180,125 +303,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,181 +319,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +533,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -554,30 +587,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -588,26 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,16 +615,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,136 +648,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1159,16 +1163,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1249,8 +1254,12 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F3" s="8">
+        <v>42951</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
@@ -1267,8 +1276,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42951</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
@@ -1285,8 +1298,12 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42951</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
@@ -1303,12 +1320,16 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42951</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="47" customHeight="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1321,10 +1342,18 @@
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" ht="86.25" spans="1:8">
       <c r="A8" s="6" t="s">
@@ -1334,15 +1363,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42951</v>
+      </c>
       <c r="G8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -1356,15 +1389,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42951</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>
@@ -1378,13 +1415,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42951</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
@@ -1396,13 +1437,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42951</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
@@ -1414,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1426,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -106,7 +106,7 @@
   <si>
     <t>1.内容相关代码新框架迁移、与测试联调；
 2.内容接口修正(sinneritem中概要说明summary和详情描述detail置空)；
-3.演唱会接口及业务熟悉；</t>
+3.演唱会接口及业务接手；</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>赵小平</t>
+  </si>
+  <si>
+    <t>1.批量查询播放列表接口开发
+2.查询单个播放列表接口咖啡
+3.查询用户创建的播放列表接口开发</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
   </si>
   <si>
     <t>陈毅昌</t>
@@ -98,23 +106,28 @@
     <t>罗健</t>
   </si>
   <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
     <t>1.内容相关代码新框架迁移、与测试联调；
 2.内容接口修正(sinneritem中概要说明summary和详情描述detail置空)；
 3.演唱会接口及业务接手；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,25 +168,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +326,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -221,18 +551,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -260,19 +838,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -563,354 +1182,359 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>42947</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>42951</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>42947</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>42951</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>42947</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>42951</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>42947</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>42951</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="51.75" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>42947</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>42951</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="47.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>42947</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>42951</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="86.25" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>42947</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>42951</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="48.95" customHeight="1" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>42947</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>42951</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="69" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>42947</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>42951</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>42947</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>42951</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -74,7 +74,7 @@
   </si>
   <si>
     <t>1.批量查询播放列表接口开发
-2.查询单个播放列表接口咖啡
+2.查询单个播放列表接口开发
 3.查询用户创建的播放列表接口开发</t>
   </si>
   <si>
@@ -123,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -168,91 +168,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +199,78 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -274,50 +278,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,13 +332,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,139 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +547,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -563,6 +581,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,79 +643,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,136 +661,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1191,7 +1185,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170804周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -70,6 +65,10 @@
   </si>
   <si>
     <t>凌河源</t>
+  </si>
+  <si>
+    <t>1.三线客服系统框架修改以及界面主页开发
+2.白金会员赠送数字专辑活动需求修改及联调上线</t>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -119,23 +118,27 @@
     <t>周小龙</t>
   </si>
   <si>
+    <t>陈皓阳</t>
+  </si>
+  <si>
+    <t>1.演唱会的互动数据需求开发
+2.redis，jedis熟悉.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.三线客服系统框架修改以及界面主页开发
-2.白金会员赠送数字专辑活动需求修改及联调上线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,27 +149,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -176,12 +160,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -201,21 +179,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +337,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -254,26 +547,257 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -281,50 +805,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -611,362 +1176,389 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>42947</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>42951</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>42947</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>42951</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="34.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>42947</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>42951</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="51.75" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="47.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="86.25" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="48.95" customHeight="1" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="69" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42951</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7">
-        <v>42947</v>
-      </c>
-      <c r="F5" s="7">
-        <v>42951</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7">
-        <v>42947</v>
-      </c>
-      <c r="F6" s="7">
-        <v>42951</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7">
-        <v>42947</v>
-      </c>
-      <c r="F7" s="7">
-        <v>42951</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7">
-        <v>42947</v>
-      </c>
-      <c r="F8" s="7">
-        <v>42951</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7">
-        <v>42947</v>
-      </c>
-      <c r="F9" s="7">
-        <v>42951</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7">
-        <v>42947</v>
-      </c>
-      <c r="F10" s="7">
-        <v>42951</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
-        <v>42947</v>
-      </c>
-      <c r="F11" s="7">
-        <v>42951</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>杜智恒</t>
+  </si>
+  <si>
+    <t>1.开始第二阶段限流需求的开发                                   2.对并发量限制的开发                                                3.完善项目上线文档</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -133,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -179,9 +182,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,17 +205,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,8 +284,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,102 +324,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,181 +346,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,71 +549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +576,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -643,16 +631,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,136 +664,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1185,7 +1188,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1272,8 +1275,12 @@
       <c r="F3" s="8">
         <v>42951</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="34.5" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1283,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -1295,7 +1302,7 @@
         <v>42951</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>13</v>
@@ -1309,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -1331,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1343,10 +1350,10 @@
         <v>42951</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="47.1" customHeight="1" spans="1:8">
@@ -1357,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1369,7 +1376,7 @@
         <v>42951</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>13</v>
@@ -1383,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -1395,7 +1402,7 @@
         <v>42951</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -1409,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -1421,7 +1428,7 @@
         <v>42951</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>
@@ -1435,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1447,7 +1454,7 @@
         <v>42951</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>13</v>
@@ -1461,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1483,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1495,7 +1502,7 @@
         <v>42951</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>13</v>
@@ -1521,7 +1528,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -183,14 +183,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +273,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,6 +310,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,113 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,181 +346,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -558,20 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,43 +603,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,16 +635,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,136 +664,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
+++ b/20170804周报/技术支撑服务人员周报日报-20170804.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170804周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -144,11 +139,15 @@
 2.阅读开发规范，了解项目结构</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>1.创建播放列表接口开发；2.修改播放列表接口开发；3.删除播放列表接口开发。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,24 +597,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -641,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -667,7 +666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -693,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -719,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -738,10 +737,12 @@
       <c r="F5" s="6">
         <v>42951</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -767,7 +768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -793,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="104.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -819,7 +820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -845,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -871,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -893,7 +894,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -919,7 +920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -958,41 +959,41 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
     </row>
   </sheetData>
